--- a/data.xlsx
+++ b/data.xlsx
@@ -479,12 +479,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://pluszkereset.com/?p=86</t>
+          <t>https://pavilion-stratco.com.au/?p=1951</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>pluszkereset.com</t>
+          <t>pavilion-stratco.com.au</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,12 +479,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://pavilion-stratco.com.au/?p=1951</t>
+          <t>https://premierfleetdispatch.com/?p=97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>pavilion-stratco.com.au</t>
+          <t>premierfleetdispatch.com</t>
         </is>
       </c>
     </row>
